--- a/biology/Médecine/Els_Goulmy/Els_Goulmy.xlsx
+++ b/biology/Médecine/Els_Goulmy/Els_Goulmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Els Goulmy (née le 27 novembre 1946 à La Haye) est professeur de biologie de la transplantation, spécialiste du complexe mineur d'histocompatibilité (en)[1] à l'Université de Leyde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Els Goulmy (née le 27 novembre 1946 à La Haye) est professeur de biologie de la transplantation, spécialiste du complexe mineur d'histocompatibilité (en) à l'Université de Leyde.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est considérée comme une experte dans le domaine du typage tissulaire et des transplantations.
 </t>
@@ -542,12 +556,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a obtenu le prix Spinoza en 2002.
-De 2001 à 2012, elle a été la présidente fondatrice du Réseau néerlandais de femmes professeurs (Landelijk Netwerk Vrouwelijke Hoogleraren (nl) - LNVH)[3].
+De 2001 à 2012, elle a été la présidente fondatrice du Réseau néerlandais de femmes professeurs (Landelijk Netwerk Vrouwelijke Hoogleraren (nl) - LNVH).
 Elle est professeur émérite depuis le 11 novembre 2011 et chevalier de l'Ordre du Lion néerlandais la même année.
-Elle a obtenu le prix Elisabeth Steyn-Parvé en 2012[4].
+Elle a obtenu le prix Elisabeth Steyn-Parvé en 2012.
 </t>
         </is>
       </c>
